--- a/3_Component_Results/GDP/Tables/ifo_tbl/ifo_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/GDP/Tables/ifo_tbl/ifo_qoq_forecast_error_table_first_eval.xlsx
@@ -450,19 +450,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>-0.03986657931951261</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1.166715395314321</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>9.175165609364871</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>3.029053583112202</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>3.058341104199183</v>
       </c>
       <c r="G2">
         <v>52</v>
@@ -473,19 +473,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.4158077214534259</v>
+        <v>0.3935572759351038</v>
       </c>
       <c r="C3">
-        <v>0.4511591607968662</v>
+        <v>0.9729011477362982</v>
       </c>
       <c r="D3">
-        <v>1.523750408680944</v>
+        <v>6.967390270327681</v>
       </c>
       <c r="E3">
-        <v>1.234402855100775</v>
+        <v>2.639581457414732</v>
       </c>
       <c r="F3">
-        <v>1.173827685143721</v>
+        <v>2.636048747596285</v>
       </c>
       <c r="G3">
         <v>51</v>
@@ -496,19 +496,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.5877590814420754</v>
+        <v>0.5845645237101601</v>
       </c>
       <c r="C4">
-        <v>0.9195286113359675</v>
+        <v>0.9612686620598623</v>
       </c>
       <c r="D4">
-        <v>4.297125398151727</v>
+        <v>4.440372314603645</v>
       </c>
       <c r="E4">
-        <v>2.072950891398956</v>
+        <v>2.107219095064309</v>
       </c>
       <c r="F4">
-        <v>2.008061472637712</v>
+        <v>2.045067892746351</v>
       </c>
       <c r="G4">
         <v>50</v>
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.4510715860717722</v>
+        <v>0.4605577599719269</v>
       </c>
       <c r="C5">
-        <v>0.856402448950899</v>
+        <v>1.029373326337189</v>
       </c>
       <c r="D5">
-        <v>4.442260307210455</v>
+        <v>4.397813778901289</v>
       </c>
       <c r="E5">
-        <v>2.10766702949267</v>
+        <v>2.097096511584836</v>
       </c>
       <c r="F5">
-        <v>2.08016897270895</v>
+        <v>2.071314277662061</v>
       </c>
       <c r="G5">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.4226488811807394</v>
+        <v>0.5450649147966192</v>
       </c>
       <c r="C6">
-        <v>0.8787322145140726</v>
+        <v>1.227243952030447</v>
       </c>
       <c r="D6">
-        <v>4.351485579288256</v>
+        <v>6.248613964862616</v>
       </c>
       <c r="E6">
-        <v>2.086021471435099</v>
+        <v>2.499722777602072</v>
       </c>
       <c r="F6">
-        <v>2.064373420580667</v>
+        <v>2.479899623702079</v>
       </c>
       <c r="G6">
-        <v>48</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.3850883167931869</v>
+        <v>0.4748548997082894</v>
       </c>
       <c r="C7">
-        <v>0.8277730935231578</v>
+        <v>1.211225564801436</v>
       </c>
       <c r="D7">
-        <v>5.092394764049311</v>
+        <v>6.526816765525255</v>
       </c>
       <c r="E7">
-        <v>2.256633502376784</v>
+        <v>2.554763543955733</v>
       </c>
       <c r="F7">
-        <v>2.252600651062942</v>
+        <v>2.554677489448803</v>
       </c>
       <c r="G7">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.3720028637408936</v>
+        <v>0.411137621314042</v>
       </c>
       <c r="C8">
-        <v>0.8817325400336936</v>
+        <v>1.221296936513468</v>
       </c>
       <c r="D8">
-        <v>5.208208563463672</v>
+        <v>6.896165483727119</v>
       </c>
       <c r="E8">
-        <v>2.282149987065634</v>
+        <v>2.626055118181474</v>
       </c>
       <c r="F8">
-        <v>2.281851147806673</v>
+        <v>2.643079106050209</v>
       </c>
       <c r="G8">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.4328114511582722</v>
+        <v>0.4034568762020432</v>
       </c>
       <c r="C9">
-        <v>1.260620974967793</v>
+        <v>1.549620193073209</v>
       </c>
       <c r="D9">
-        <v>9.255752323152226</v>
+        <v>9.580566432589528</v>
       </c>
       <c r="E9">
-        <v>3.042326794273131</v>
+        <v>3.095249009787343</v>
       </c>
       <c r="F9">
-        <v>3.085749163403179</v>
+        <v>3.15293505810293</v>
       </c>
       <c r="G9">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.2253514644011622</v>
+        <v>0.159026239978337</v>
       </c>
       <c r="C10">
-        <v>0.8692199641702671</v>
+        <v>1.962138362601939</v>
       </c>
       <c r="D10">
-        <v>3.1538758495023</v>
+        <v>14.29507177400229</v>
       </c>
       <c r="E10">
-        <v>1.775915496160304</v>
+        <v>3.780882406793723</v>
       </c>
       <c r="F10">
-        <v>1.828056890587627</v>
+        <v>3.945508253329552</v>
       </c>
       <c r="G10">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,19 +657,19 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.528408343223261</v>
+        <v>-1.776008350391145</v>
       </c>
       <c r="C11">
-        <v>0.528408343223261</v>
+        <v>2.037774147513916</v>
       </c>
       <c r="D11">
-        <v>0.3628698470762892</v>
+        <v>13.78833596834753</v>
       </c>
       <c r="E11">
-        <v>0.6023867919171944</v>
+        <v>3.713264866441327</v>
       </c>
       <c r="F11">
-        <v>0.3233698924767455</v>
+        <v>3.645910432883749</v>
       </c>
       <c r="G11">
         <v>5</v>

--- a/3_Component_Results/GDP/Tables/ifo_tbl/ifo_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/GDP/Tables/ifo_tbl/ifo_qoq_forecast_error_table_first_eval.xlsx
@@ -450,19 +450,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.03986657931951261</v>
+        <v>0.02539962882261295</v>
       </c>
       <c r="C2">
-        <v>1.166715395314321</v>
+        <v>0.2597273962171842</v>
       </c>
       <c r="D2">
-        <v>9.175165609364871</v>
+        <v>0.3180567948316633</v>
       </c>
       <c r="E2">
-        <v>3.029053583112202</v>
+        <v>0.5639652425740999</v>
       </c>
       <c r="F2">
-        <v>3.058341104199183</v>
+        <v>0.5688896304229624</v>
       </c>
       <c r="G2">
         <v>52</v>
@@ -473,19 +473,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.3935572759351038</v>
+        <v>0.4459617371143483</v>
       </c>
       <c r="C3">
-        <v>0.9729011477362982</v>
+        <v>0.6540342364242132</v>
       </c>
       <c r="D3">
-        <v>6.967390270327681</v>
+        <v>1.388895812590984</v>
       </c>
       <c r="E3">
-        <v>2.639581457414732</v>
+        <v>1.17851423945194</v>
       </c>
       <c r="F3">
-        <v>2.636048747596285</v>
+        <v>1.101732372426877</v>
       </c>
       <c r="G3">
         <v>51</v>
@@ -496,19 +496,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.5845645237101601</v>
+        <v>0.6024413171113788</v>
       </c>
       <c r="C4">
-        <v>0.9612686620598623</v>
+        <v>0.9796726598280953</v>
       </c>
       <c r="D4">
-        <v>4.440372314603645</v>
+        <v>3.63049943662146</v>
       </c>
       <c r="E4">
-        <v>2.107219095064309</v>
+        <v>1.905386951939543</v>
       </c>
       <c r="F4">
-        <v>2.045067892746351</v>
+        <v>1.82599257214512</v>
       </c>
       <c r="G4">
         <v>50</v>
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.4605577599719269</v>
+        <v>0.5121426763354459</v>
       </c>
       <c r="C5">
-        <v>1.029373326337189</v>
+        <v>1.006154916801229</v>
       </c>
       <c r="D5">
-        <v>4.397813778901289</v>
+        <v>3.970987900588087</v>
       </c>
       <c r="E5">
-        <v>2.097096511584836</v>
+        <v>1.99273377564292</v>
       </c>
       <c r="F5">
-        <v>2.071314277662061</v>
+        <v>1.945754947762022</v>
       </c>
       <c r="G5">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.5450649147966192</v>
+        <v>0.4218352939147489</v>
       </c>
       <c r="C6">
-        <v>1.227243952030447</v>
+        <v>0.8877411355809319</v>
       </c>
       <c r="D6">
-        <v>6.248613964862616</v>
+        <v>3.626482144461433</v>
       </c>
       <c r="E6">
-        <v>2.499722777602072</v>
+        <v>1.904332466892646</v>
       </c>
       <c r="F6">
-        <v>2.479899623702079</v>
+        <v>1.876675320794537</v>
       </c>
       <c r="G6">
-        <v>31</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.4748548997082894</v>
+        <v>0.3949550873240204</v>
       </c>
       <c r="C7">
-        <v>1.211225564801436</v>
+        <v>0.8680554327475212</v>
       </c>
       <c r="D7">
-        <v>6.526816765525255</v>
+        <v>4.006566611836582</v>
       </c>
       <c r="E7">
-        <v>2.554763543955733</v>
+        <v>2.001640979755506</v>
       </c>
       <c r="F7">
-        <v>2.554677489448803</v>
+        <v>1.987940659805524</v>
       </c>
       <c r="G7">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.411137621314042</v>
+        <v>0.3899578886789405</v>
       </c>
       <c r="C8">
-        <v>1.221296936513468</v>
+        <v>0.8693687210883813</v>
       </c>
       <c r="D8">
-        <v>6.896165483727119</v>
+        <v>4.090339984385427</v>
       </c>
       <c r="E8">
-        <v>2.626055118181474</v>
+        <v>2.022458895598481</v>
       </c>
       <c r="F8">
-        <v>2.643079106050209</v>
+        <v>2.011147094482062</v>
       </c>
       <c r="G8">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.4034568762020432</v>
+        <v>0.3439843485875357</v>
       </c>
       <c r="C9">
-        <v>1.549620193073209</v>
+        <v>1.183619751688364</v>
       </c>
       <c r="D9">
-        <v>9.580566432589528</v>
+        <v>6.937012254809386</v>
       </c>
       <c r="E9">
-        <v>3.095249009787343</v>
+        <v>2.633820847136226</v>
       </c>
       <c r="F9">
-        <v>3.15293505810293</v>
+        <v>2.675746881502995</v>
       </c>
       <c r="G9">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.159026239978337</v>
+        <v>-0.2090860748678977</v>
       </c>
       <c r="C10">
-        <v>1.962138362601939</v>
+        <v>0.8864813411966667</v>
       </c>
       <c r="D10">
-        <v>14.29507177400229</v>
+        <v>3.164946506954499</v>
       </c>
       <c r="E10">
-        <v>3.780882406793723</v>
+        <v>1.779029653197074</v>
       </c>
       <c r="F10">
-        <v>3.945508253329552</v>
+        <v>1.833391419946016</v>
       </c>
       <c r="G10">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,19 +657,19 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>-1.776008350391145</v>
+        <v>0.528408343223261</v>
       </c>
       <c r="C11">
-        <v>2.037774147513916</v>
+        <v>0.528408343223261</v>
       </c>
       <c r="D11">
-        <v>13.78833596834753</v>
+        <v>0.3628698470762892</v>
       </c>
       <c r="E11">
-        <v>3.713264866441327</v>
+        <v>0.6023867919171944</v>
       </c>
       <c r="F11">
-        <v>3.645910432883749</v>
+        <v>0.3233698924767455</v>
       </c>
       <c r="G11">
         <v>5</v>

--- a/3_Component_Results/GDP/Tables/ifo_tbl/ifo_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/GDP/Tables/ifo_tbl/ifo_qoq_forecast_error_table_first_eval.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.02539962882261295</v>
+        <v>0.006971674199201135</v>
       </c>
       <c r="C2">
-        <v>0.2597273962171842</v>
+        <v>0.414613479980299</v>
       </c>
       <c r="D2">
-        <v>0.3180567948316633</v>
+        <v>0.4465464471237033</v>
       </c>
       <c r="E2">
-        <v>0.5639652425740999</v>
+        <v>0.6682413090521292</v>
       </c>
       <c r="F2">
-        <v>0.5688896304229624</v>
+        <v>0.6748539099243737</v>
       </c>
       <c r="G2">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.4459617371143483</v>
+        <v>0.4355859266737307</v>
       </c>
       <c r="C3">
-        <v>0.6540342364242132</v>
+        <v>0.699453688851532</v>
       </c>
       <c r="D3">
-        <v>1.388895812590984</v>
+        <v>1.429667568063306</v>
       </c>
       <c r="E3">
-        <v>1.17851423945194</v>
+        <v>1.195687069455594</v>
       </c>
       <c r="F3">
-        <v>1.101732372426877</v>
+        <v>1.124827636930724</v>
       </c>
       <c r="G3">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.6024413171113788</v>
+        <v>0.5940129335889834</v>
       </c>
       <c r="C4">
-        <v>0.9796726598280953</v>
+        <v>1.050797193125951</v>
       </c>
       <c r="D4">
-        <v>3.63049943662146</v>
+        <v>4.135615467765216</v>
       </c>
       <c r="E4">
-        <v>1.905386951939543</v>
+        <v>2.033621269500596</v>
       </c>
       <c r="F4">
-        <v>1.82599257214512</v>
+        <v>1.965088213786561</v>
       </c>
       <c r="G4">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.5121426763354459</v>
+        <v>0.5024337226471743</v>
       </c>
       <c r="C5">
-        <v>1.006154916801229</v>
+        <v>1.099887659833765</v>
       </c>
       <c r="D5">
-        <v>3.970987900588087</v>
+        <v>4.742322585733941</v>
       </c>
       <c r="E5">
-        <v>1.99273377564292</v>
+        <v>2.177687439862282</v>
       </c>
       <c r="F5">
-        <v>1.945754947762022</v>
+        <v>2.141357598426261</v>
       </c>
       <c r="G5">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.4218352939147489</v>
+        <v>0.4027908244544923</v>
       </c>
       <c r="C6">
-        <v>0.8877411355809319</v>
+        <v>0.9781117343447195</v>
       </c>
       <c r="D6">
-        <v>3.626482144461433</v>
+        <v>4.417744944668907</v>
       </c>
       <c r="E6">
-        <v>1.904332466892646</v>
+        <v>2.101843225521092</v>
       </c>
       <c r="F6">
-        <v>1.876675320794537</v>
+        <v>2.08518955102823</v>
       </c>
       <c r="G6">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.3949550873240204</v>
+        <v>0.3740519112273883</v>
       </c>
       <c r="C7">
-        <v>0.8680554327475212</v>
+        <v>0.9832035832409267</v>
       </c>
       <c r="D7">
-        <v>4.006566611836582</v>
+        <v>4.94152750655546</v>
       </c>
       <c r="E7">
-        <v>2.001640979755506</v>
+        <v>2.222954679375057</v>
       </c>
       <c r="F7">
-        <v>1.987940659805524</v>
+        <v>2.220672418386649</v>
       </c>
       <c r="G7">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.3899578886789405</v>
+        <v>0.3686574517514005</v>
       </c>
       <c r="C8">
-        <v>0.8693687210883813</v>
+        <v>0.9897903167014467</v>
       </c>
       <c r="D8">
-        <v>4.090339984385427</v>
+        <v>5.048307810960813</v>
       </c>
       <c r="E8">
-        <v>2.022458895598481</v>
+        <v>2.246843966758887</v>
       </c>
       <c r="F8">
-        <v>2.011147094482062</v>
+        <v>2.246965739777832</v>
       </c>
       <c r="G8">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.3439843485875357</v>
+        <v>0.2563981495475554</v>
       </c>
       <c r="C9">
-        <v>1.183619751688364</v>
+        <v>1.371782596377584</v>
       </c>
       <c r="D9">
-        <v>6.937012254809386</v>
+        <v>8.685257687481315</v>
       </c>
       <c r="E9">
-        <v>2.633820847136226</v>
+        <v>2.947076125158852</v>
       </c>
       <c r="F9">
-        <v>2.675746881502995</v>
+        <v>3.012171393108808</v>
       </c>
       <c r="G9">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.2090860748678977</v>
+        <v>-0.4358536319779404</v>
       </c>
       <c r="C10">
-        <v>0.8864813411966667</v>
+        <v>1.061643998448061</v>
       </c>
       <c r="D10">
-        <v>3.164946506954499</v>
+        <v>5.46603034801007</v>
       </c>
       <c r="E10">
-        <v>1.779029653197074</v>
+        <v>2.337954308366626</v>
       </c>
       <c r="F10">
-        <v>1.833391419946016</v>
+        <v>2.390760086135826</v>
       </c>
       <c r="G10">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,19 +657,19 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.528408343223261</v>
+        <v>0.5199476580913862</v>
       </c>
       <c r="C11">
-        <v>0.528408343223261</v>
+        <v>0.536199036767537</v>
       </c>
       <c r="D11">
-        <v>0.3628698470762892</v>
+        <v>0.3603403617065257</v>
       </c>
       <c r="E11">
-        <v>0.6023867919171944</v>
+        <v>0.600283567746549</v>
       </c>
       <c r="F11">
-        <v>0.3233698924767455</v>
+        <v>0.3354004967047021</v>
       </c>
       <c r="G11">
         <v>5</v>
